--- a/notebooks/Target_Sphere.xlsx
+++ b/notebooks/Target_Sphere.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Huat\Uv-Vis Data\2021_12_13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Huat/Desktop/HEAD2201229/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E74565BA-D945-A94D-98FC-15F693CA2C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="11260" yWindow="6880" windowWidth="27240" windowHeight="16440" xr2:uid="{469199CE-E324-9747-A3E0-B735AEB525C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -29,16 +39,16 @@
     <t>Wavelength</t>
   </si>
   <si>
-    <t>B6</t>
+    <t>F5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -140,7 +150,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -152,7 +162,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -199,6 +209,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -234,6 +261,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,16 +429,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1105D16B-7319-A14F-A1E4-3E3F3892D442}">
   <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,812 +446,812 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>400</v>
       </c>
       <c r="B2" s="2">
-        <v>1.002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>405</v>
       </c>
       <c r="B3" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>410</v>
       </c>
       <c r="B4" s="2">
-        <v>0.97899999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>415</v>
       </c>
       <c r="B5" s="2">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>420</v>
       </c>
       <c r="B6" s="2">
-        <v>0.96099999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>425</v>
       </c>
       <c r="B7" s="2">
-        <v>0.95399999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>430</v>
       </c>
       <c r="B8" s="2">
-        <v>0.94799999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>435</v>
       </c>
       <c r="B9" s="2">
-        <v>0.94199999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>440</v>
       </c>
       <c r="B10" s="2">
-        <v>0.93600000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>445</v>
       </c>
       <c r="B11" s="2">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>450</v>
       </c>
       <c r="B12" s="2">
-        <v>0.92900000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>455</v>
       </c>
       <c r="B13" s="2">
-        <v>0.92700000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>460</v>
       </c>
       <c r="B14" s="2">
-        <v>0.92700000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>465</v>
       </c>
       <c r="B15" s="2">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>470</v>
       </c>
       <c r="B16" s="2">
-        <v>0.93700000000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>475</v>
       </c>
       <c r="B17" s="2">
-        <v>0.94799999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>480</v>
       </c>
       <c r="B18" s="2">
-        <v>0.96599999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>485</v>
       </c>
       <c r="B19" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>490</v>
       </c>
       <c r="B20" s="2">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>495</v>
       </c>
       <c r="B21" s="2">
-        <v>1.0720000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>500</v>
       </c>
       <c r="B22" s="2">
-        <v>1.133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>505</v>
       </c>
       <c r="B23" s="2">
-        <v>1.202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.2170000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>510</v>
       </c>
       <c r="B24" s="2">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.2929999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>515</v>
       </c>
       <c r="B25" s="2">
-        <v>1.331</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>520</v>
       </c>
       <c r="B26" s="2">
-        <v>1.377</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>525</v>
       </c>
       <c r="B27" s="2">
-        <v>1.399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.4359999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>530</v>
       </c>
       <c r="B28" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.4419999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>535</v>
       </c>
       <c r="B29" s="2">
-        <v>1.379</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.4279999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>540</v>
       </c>
       <c r="B30" s="2">
-        <v>1.341</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>545</v>
       </c>
       <c r="B31" s="2">
-        <v>1.296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>550</v>
       </c>
       <c r="B32" s="2">
-        <v>1.244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>555</v>
       </c>
       <c r="B33" s="2">
-        <v>1.1879999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>560</v>
       </c>
       <c r="B34" s="2">
-        <v>1.131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>565</v>
       </c>
       <c r="B35" s="2">
-        <v>1.075</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.1120000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>570</v>
       </c>
       <c r="B36" s="2">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.046</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>575</v>
       </c>
       <c r="B37" s="2">
-        <v>0.96699999999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>580</v>
       </c>
       <c r="B38" s="2">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>585</v>
       </c>
       <c r="B39" s="2">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>590</v>
       </c>
       <c r="B40" s="2">
-        <v>0.83499999999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>595</v>
       </c>
       <c r="B41" s="2">
-        <v>0.80100000000000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>600</v>
       </c>
       <c r="B42" s="2">
-        <v>0.77300000000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>605</v>
       </c>
       <c r="B43" s="2">
-        <v>0.749</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>610</v>
       </c>
       <c r="B44" s="2">
-        <v>0.72799999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>615</v>
       </c>
       <c r="B45" s="2">
-        <v>0.71099999999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>620</v>
       </c>
       <c r="B46" s="2">
-        <v>0.69499999999999995</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>625</v>
       </c>
       <c r="B47" s="2">
-        <v>0.68100000000000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>630</v>
       </c>
       <c r="B48" s="2">
-        <v>0.66900000000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>635</v>
       </c>
       <c r="B49" s="2">
-        <v>0.65700000000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>640</v>
       </c>
       <c r="B50" s="2">
-        <v>0.64500000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>645</v>
       </c>
       <c r="B51" s="2">
-        <v>0.63400000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>650</v>
       </c>
       <c r="B52" s="2">
-        <v>0.623</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>655</v>
       </c>
       <c r="B53" s="2">
-        <v>0.61199999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>660</v>
       </c>
       <c r="B54" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>665</v>
       </c>
       <c r="B55" s="2">
-        <v>0.58899999999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>670</v>
       </c>
       <c r="B56" s="2">
-        <v>0.57699999999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>675</v>
       </c>
       <c r="B57" s="2">
-        <v>0.56599999999999995</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>680</v>
       </c>
       <c r="B58" s="2">
-        <v>0.55500000000000005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>685</v>
       </c>
       <c r="B59" s="2">
-        <v>0.54400000000000004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>690</v>
       </c>
       <c r="B60" s="2">
-        <v>0.53300000000000003</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>695</v>
       </c>
       <c r="B61" s="2">
-        <v>0.52200000000000002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>700</v>
       </c>
       <c r="B62" s="2">
-        <v>0.51100000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>705</v>
       </c>
       <c r="B63" s="2">
-        <v>0.501</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>710</v>
       </c>
       <c r="B64" s="2">
-        <v>0.49299999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>715</v>
       </c>
       <c r="B65" s="2">
-        <v>0.48499999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>720</v>
       </c>
       <c r="B66" s="2">
-        <v>0.47699999999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>725</v>
       </c>
       <c r="B67" s="2">
-        <v>0.46800000000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>730</v>
       </c>
       <c r="B68" s="2">
-        <v>0.46300000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>735</v>
       </c>
       <c r="B69" s="2">
-        <v>0.45900000000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>740</v>
       </c>
       <c r="B70" s="2">
-        <v>0.45400000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>745</v>
       </c>
       <c r="B71" s="2">
-        <v>0.44800000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>750</v>
       </c>
       <c r="B72" s="2">
-        <v>0.443</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>755</v>
       </c>
       <c r="B73" s="2">
-        <v>0.438</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>760</v>
       </c>
       <c r="B74" s="2">
-        <v>0.433</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>765</v>
       </c>
       <c r="B75" s="2">
-        <v>0.42799999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>770</v>
       </c>
       <c r="B76" s="2">
-        <v>0.42399999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>775</v>
       </c>
       <c r="B77" s="2">
-        <v>0.41899999999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>780</v>
       </c>
       <c r="B78" s="2">
-        <v>0.41499999999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>785</v>
       </c>
       <c r="B79" s="2">
-        <v>0.41099999999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>790</v>
       </c>
       <c r="B80" s="2">
-        <v>0.40699999999999997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>795</v>
       </c>
       <c r="B81" s="2">
-        <v>0.40400000000000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>800</v>
       </c>
       <c r="B82" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>805</v>
       </c>
       <c r="B83" s="2">
-        <v>0.39700000000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>810</v>
       </c>
       <c r="B84" s="2">
-        <v>0.39500000000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>815</v>
       </c>
       <c r="B85" s="2">
-        <v>0.39300000000000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>820</v>
       </c>
       <c r="B86" s="2">
-        <v>0.39200000000000002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>825</v>
       </c>
       <c r="B87" s="2">
-        <v>0.39100000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>830</v>
       </c>
       <c r="B88" s="2">
-        <v>0.39200000000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>835</v>
       </c>
       <c r="B89" s="2">
-        <v>0.39500000000000002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>840</v>
       </c>
       <c r="B90" s="2">
-        <v>0.39500000000000002</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>845</v>
       </c>
       <c r="B91" s="2">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>850</v>
       </c>
       <c r="B92" s="2">
-        <v>0.39300000000000002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>855</v>
       </c>
       <c r="B93" s="2">
-        <v>0.39300000000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>860</v>
       </c>
       <c r="B94" s="2">
-        <v>0.39300000000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>865</v>
       </c>
       <c r="B95" s="2">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>870</v>
       </c>
       <c r="B96" s="2">
-        <v>0.39700000000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>875</v>
       </c>
       <c r="B97" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>880</v>
       </c>
       <c r="B98" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>885</v>
       </c>
       <c r="B99" s="2">
-        <v>0.39500000000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>890</v>
       </c>
       <c r="B100" s="2">
-        <v>0.39700000000000002</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>895</v>
       </c>
       <c r="B101" s="2">
-        <v>0.39800000000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>900</v>
       </c>
       <c r="B102" s="2">
-        <v>0.39900000000000002</v>
+        <v>0.28899999999999998</v>
       </c>
     </row>
   </sheetData>
